--- a/excel/风化因素分析.xlsx
+++ b/excel/风化因素分析.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\G\exercise\github\2022_model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797A4ED2-7C4B-43D4-A42F-026241FD11A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4B4A40-8C41-4934-8976-39856EFC4558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14CC41C9-6FF1-4F76-BD7C-AD143CBB96A1}"/>
+    <workbookView xWindow="4008" yWindow="3864" windowWidth="17280" windowHeight="9420" xr2:uid="{14CC41C9-6FF1-4F76-BD7C-AD143CBB96A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -466,7 +469,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -492,17 +495,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>5</v>
+      <c r="A2" s="4">
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -510,36 +513,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -564,13 +567,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -578,36 +581,36 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,81 +618,81 @@
         <v>2</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>8</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -700,30 +703,30 @@
         <v>1</v>
       </c>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -731,16 +734,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
@@ -757,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -765,19 +768,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -794,18 +797,18 @@
         <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3">
         <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
         <v>6</v>
@@ -816,7 +819,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
@@ -825,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -833,16 +836,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -866,6 +869,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E23" xr:uid="{8AC178E4-8AF5-4C64-9C24-8D355DE4B693}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+      <sortCondition ref="D1:D23"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/风化因素分析.xlsx
+++ b/excel/风化因素分析.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\G\exercise\github\2022_model\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16033\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4B4A40-8C41-4934-8976-39856EFC4558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35923C93-225A-488C-B751-74DA599340C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="3864" windowWidth="17280" windowHeight="9420" xr2:uid="{14CC41C9-6FF1-4F76-BD7C-AD143CBB96A1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9420" xr2:uid="{14CC41C9-6FF1-4F76-BD7C-AD143CBB96A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>文物重复数</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -55,6 +55,42 @@
   </si>
   <si>
     <t>表面风化</t>
+  </si>
+  <si>
+    <t>深蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">浅蓝 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -469,7 +505,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -499,13 +535,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -513,7 +549,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -521,11 +557,11 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
-        <v>8</v>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,13 +569,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -550,21 +586,21 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
@@ -572,11 +608,11 @@
       <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
-        <v>3</v>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,11 +625,11 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
-        <v>3</v>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,25 +642,25 @@
       <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
-        <v>4</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -632,24 +668,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -657,42 +693,42 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
-        <v>5</v>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
-        <v>5</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>5</v>
+      <c r="A13" s="4">
+        <v>4</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -700,19 +736,19 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,30 +756,30 @@
         <v>6</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>1</v>
+      <c r="A16" s="2">
+        <v>5</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
-        <v>7</v>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
@@ -751,16 +787,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
-        <v>7</v>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -771,13 +807,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -785,16 +821,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -802,33 +838,33 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3">
         <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="3">
-        <v>6</v>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -844,8 +880,8 @@
       <c r="C22" s="3">
         <v>2</v>
       </c>
-      <c r="D22" s="3">
-        <v>9</v>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -861,8 +897,8 @@
       <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="3">
-        <v>9</v>
+      <c r="D23" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
